--- a/data-raw/Exportfile_M1_it.xlsx
+++ b/data-raw/Exportfile_M1_it.xlsx
@@ -617,7 +617,7 @@
     <x:t>195</x:t>
   </x:si>
   <x:si>
-    <x:t>Apprentice</x:t>
+    <x:t>Apprendista</x:t>
   </x:si>
   <x:si>
     <x:t>22</x:t>
@@ -635,7 +635,7 @@
     <x:t>284</x:t>
   </x:si>
   <x:si>
-    <x:t>Trainee</x:t>
+    <x:t>Tirocinante</x:t>
   </x:si>
   <x:si>
     <x:t>24</x:t>
@@ -644,25 +644,25 @@
     <x:t>1</x:t>
   </x:si>
   <x:si>
-    <x:t>Technical clerk</x:t>
+    <x:t>Collaboratore/trice tecnico</x:t>
   </x:si>
   <x:si>
     <x:t>2</x:t>
   </x:si>
   <x:si>
-    <x:t>Head of department</x:t>
+    <x:t>Caposezione</x:t>
   </x:si>
   <x:si>
     <x:t>3</x:t>
   </x:si>
   <x:si>
-    <x:t>Team Leader</x:t>
+    <x:t>Caposquadra</x:t>
   </x:si>
   <x:si>
     <x:t>4</x:t>
   </x:si>
   <x:si>
-    <x:t>Senior Project Manager</x:t>
+    <x:t>Capoprogetto Senior</x:t>
   </x:si>
   <x:si>
     <x:t>5</x:t>
@@ -671,13 +671,13 @@
     <x:t>6</x:t>
   </x:si>
   <x:si>
-    <x:t>Chief fitter</x:t>
+    <x:t>Capomontatore</x:t>
   </x:si>
   <x:si>
     <x:t>7</x:t>
   </x:si>
   <x:si>
-    <x:t>Fitter/Installer</x:t>
+    <x:t>Montatore-Installatore</x:t>
   </x:si>
   <x:si>
     <x:t>8</x:t>
@@ -695,13 +695,13 @@
     <x:t>12</x:t>
   </x:si>
   <x:si>
-    <x:t>Junior Project Manager</x:t>
+    <x:t>Capoprogetto Junior</x:t>
   </x:si>
   <x:si>
     <x:t>13</x:t>
   </x:si>
   <x:si>
-    <x:t>Technician</x:t>
+    <x:t>Tecnico/a</x:t>
   </x:si>
   <x:si>
     <x:t>14</x:t>
@@ -710,13 +710,13 @@
     <x:t>15</x:t>
   </x:si>
   <x:si>
-    <x:t>Commercial clerk</x:t>
+    <x:t>Collaboratore/trice amministrativa</x:t>
   </x:si>
   <x:si>
     <x:t>16</x:t>
   </x:si>
   <x:si>
-    <x:t>Service Fitter</x:t>
+    <x:t>Installatore di servici</x:t>
   </x:si>
   <x:si>
     <x:t>17</x:t>
@@ -737,7 +737,7 @@
     <x:t>23</x:t>
   </x:si>
   <x:si>
-    <x:t>Executive Assistant</x:t>
+    <x:t>Assistente di direzione</x:t>
   </x:si>
   <x:si>
     <x:t>25</x:t>
@@ -749,7 +749,7 @@
     <x:t>27</x:t>
   </x:si>
   <x:si>
-    <x:t>Head of division, board member</x:t>
+    <x:t>Capo settore, membro della direzione</x:t>
   </x:si>
   <x:si>
     <x:t>28</x:t>
@@ -758,7 +758,7 @@
     <x:t>29</x:t>
   </x:si>
   <x:si>
-    <x:t>Receptionist</x:t>
+    <x:t>Addetto/a alla reception</x:t>
   </x:si>
   <x:si>
     <x:t>30</x:t>
@@ -821,7 +821,7 @@
     <x:t>48</x:t>
   </x:si>
   <x:si>
-    <x:t>Professional Project Manager</x:t>
+    <x:t>Capoprogetto Professional</x:t>
   </x:si>
   <x:si>
     <x:t>49</x:t>
@@ -905,7 +905,7 @@
     <x:t>75</x:t>
   </x:si>
   <x:si>
-    <x:t>Site Foreman/Forewoman</x:t>
+    <x:t>Capocantiere</x:t>
   </x:si>
   <x:si>
     <x:t>76</x:t>
@@ -920,13 +920,13 @@
     <x:t>79</x:t>
   </x:si>
   <x:si>
-    <x:t>Assistant fitter</x:t>
+    <x:t>Montatore assistente</x:t>
   </x:si>
   <x:si>
     <x:t>80</x:t>
   </x:si>
   <x:si>
-    <x:t>Logistician</x:t>
+    <x:t>Addetto/a alla logistica</x:t>
   </x:si>
   <x:si>
     <x:t>81</x:t>
@@ -968,7 +968,7 @@
     <x:t>93</x:t>
   </x:si>
   <x:si>
-    <x:t>Technical Facility Manager</x:t>
+    <x:t>Custode tecnico</x:t>
   </x:si>
   <x:si>
     <x:t>94</x:t>
@@ -998,7 +998,7 @@
     <x:t>102</x:t>
   </x:si>
   <x:si>
-    <x:t>Managing Director</x:t>
+    <x:t>Direttore/trice</x:t>
   </x:si>
   <x:si>
     <x:t>103</x:t>
@@ -1058,7 +1058,7 @@
     <x:t>121</x:t>
   </x:si>
   <x:si>
-    <x:t>Engineer</x:t>
+    <x:t>Ingegnere</x:t>
   </x:si>
   <x:si>
     <x:t>122</x:t>
@@ -1448,7 +1448,7 @@
     <x:t>252</x:t>
   </x:si>
   <x:si>
-    <x:t>Buyer</x:t>
+    <x:t>Acquirente</x:t>
   </x:si>
   <x:si>
     <x:t>253</x:t>
@@ -3161,7 +3161,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="E25" s="67">
-        <x:v>45586</x:v>
+        <x:v>45588</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:24">
@@ -3366,12 +3366,8 @@
       <x:c r="F2" s="5" t="s">
         <x:v>61</x:v>
       </x:c>
-      <x:c r="G2" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H2" s="2" t="n">
-        <x:v>5</x:v>
-      </x:c>
+      <x:c r="G2" s="2" t="n"/>
+      <x:c r="H2" s="2" t="n"/>
       <x:c r="I2" s="4" t="n">
         <x:v>100</x:v>
       </x:c>
@@ -3435,12 +3431,8 @@
       <x:c r="F3" s="5" t="s">
         <x:v>61</x:v>
       </x:c>
-      <x:c r="G3" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H3" s="2" t="n">
-        <x:v>5</x:v>
-      </x:c>
+      <x:c r="G3" s="2" t="n"/>
+      <x:c r="H3" s="2" t="n"/>
       <x:c r="I3" s="4" t="n">
         <x:v>100</x:v>
       </x:c>
@@ -3503,12 +3495,8 @@
       <x:c r="F4" s="5" t="s">
         <x:v>61</x:v>
       </x:c>
-      <x:c r="G4" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H4" s="2" t="n">
-        <x:v>5</x:v>
-      </x:c>
+      <x:c r="G4" s="2" t="n"/>
+      <x:c r="H4" s="2" t="n"/>
       <x:c r="I4" s="4" t="n">
         <x:v>100</x:v>
       </x:c>
@@ -3571,12 +3559,8 @@
       <x:c r="F5" s="5" t="s">
         <x:v>61</x:v>
       </x:c>
-      <x:c r="G5" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H5" s="2" t="n">
-        <x:v>5</x:v>
-      </x:c>
+      <x:c r="G5" s="2" t="n"/>
+      <x:c r="H5" s="2" t="n"/>
       <x:c r="I5" s="4" t="n">
         <x:v>100</x:v>
       </x:c>
@@ -3639,12 +3623,8 @@
       <x:c r="F6" s="5" t="s">
         <x:v>67</x:v>
       </x:c>
-      <x:c r="G6" s="2" t="n">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="H6" s="2" t="n">
-        <x:v>5</x:v>
-      </x:c>
+      <x:c r="G6" s="2" t="n"/>
+      <x:c r="H6" s="2" t="n"/>
       <x:c r="I6" s="4" t="n">
         <x:v>100</x:v>
       </x:c>
@@ -22795,199 +22775,199 @@
     </x:row>
     <x:row r="2" spans="1:9">
       <x:c r="A2" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B2" s="5" t="s">
-        <x:v>61</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="C2" s="5" t="s"/>
     </x:row>
     <x:row r="3" spans="1:9">
       <x:c r="A3" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B3" s="5" t="s">
-        <x:v>162</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="C3" s="5" t="s"/>
     </x:row>
     <x:row r="4" spans="1:9">
       <x:c r="A4" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="B4" s="5" t="s">
-        <x:v>338</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C4" s="5" t="s"/>
     </x:row>
     <x:row r="5" spans="1:9">
       <x:c r="A5" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B5" s="5" t="s">
-        <x:v>79</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C5" s="5" t="s"/>
     </x:row>
     <x:row r="6" spans="1:9">
       <x:c r="A6" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="B6" s="5" t="s">
-        <x:v>92</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="C6" s="5" t="s"/>
     </x:row>
     <x:row r="7" spans="1:9">
       <x:c r="A7" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="B7" s="5" t="s">
-        <x:v>208</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="C7" s="5" t="s"/>
     </x:row>
     <x:row r="8" spans="1:9">
       <x:c r="A8" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B8" s="5" t="s">
-        <x:v>101</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="C8" s="5" t="s"/>
     </x:row>
     <x:row r="9" spans="1:9">
       <x:c r="A9" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B9" s="5" t="s">
-        <x:v>81</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C9" s="5" t="s"/>
     </x:row>
     <x:row r="10" spans="1:9">
       <x:c r="A10" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="B10" s="5" t="s">
-        <x:v>72</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="C10" s="5" t="s"/>
     </x:row>
     <x:row r="11" spans="1:9">
       <x:c r="A11" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B11" s="5" t="s">
-        <x:v>105</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="C11" s="5" t="s"/>
     </x:row>
     <x:row r="12" spans="1:9">
       <x:c r="A12" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="B12" s="5" t="s">
-        <x:v>87</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C12" s="5" t="s"/>
     </x:row>
     <x:row r="13" spans="1:9">
       <x:c r="A13" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B13" s="5" t="s">
-        <x:v>164</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="C13" s="5" t="s"/>
     </x:row>
     <x:row r="14" spans="1:9">
       <x:c r="A14" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B14" s="5" t="s">
-        <x:v>188</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C14" s="5" t="s"/>
     </x:row>
     <x:row r="15" spans="1:9">
       <x:c r="A15" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B15" s="5" t="s">
-        <x:v>129</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="C15" s="5" t="s"/>
     </x:row>
     <x:row r="16" spans="1:9">
       <x:c r="A16" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="B16" s="5" t="s">
-        <x:v>108</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C16" s="5" t="s"/>
     </x:row>
     <x:row r="17" spans="1:9">
       <x:c r="A17" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B17" s="5" t="s">
-        <x:v>76</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="C17" s="5" t="s"/>
     </x:row>
     <x:row r="18" spans="1:9">
       <x:c r="A18" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="B18" s="5" t="s">
-        <x:v>94</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="C18" s="5" t="s"/>
     </x:row>
     <x:row r="19" spans="1:9">
       <x:c r="A19" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B19" s="5" t="s">
-        <x:v>157</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="C19" s="5" t="s"/>
     </x:row>
     <x:row r="20" spans="1:9">
       <x:c r="A20" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="B20" s="5" t="s">
-        <x:v>122</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="C20" s="5" t="s"/>
     </x:row>
     <x:row r="21" spans="1:9">
       <x:c r="A21" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B21" s="5" t="s">
-        <x:v>74</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="C21" s="5" t="s"/>
     </x:row>
     <x:row r="22" spans="1:9">
       <x:c r="A22" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="B22" s="5" t="s">
-        <x:v>70</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C22" s="5" t="s"/>
     </x:row>
     <x:row r="23" spans="1:9">
       <x:c r="A23" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="B23" s="5" t="s">
-        <x:v>178</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="C23" s="5" t="s"/>
     </x:row>
